--- a/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,32%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 8,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; 2,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,46%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 3,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 1,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,97; 161,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,36; 154,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,72; 68,72</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 2,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 2,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,69; 202,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 334,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,38; 111,52</t>
         </is>
       </c>
     </row>
@@ -849,27 +849,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,97%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 0,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,89; 115,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,49; 359,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,47; 17,2</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 1,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 2,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,38; 97,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,45; 200,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,81; 123,88</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 1,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 66,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,43; 136,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,54; 30,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-40,32%</t>
+          <t>-33,04%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,27</t>
+          <t>-1,09; 3,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 8,82</t>
+          <t>-1,48; 1,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 2,6</t>
+          <t>-2,96; 1,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,85; 186,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,46; 191,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,88; 53,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>105,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,46%</t>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,79</t>
+          <t>-0,76; 2,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,41</t>
+          <t>0,12; 3,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,16</t>
+          <t>-1,05; 2,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,97; 161,41</t>
+          <t>-24,69; 202,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,36; 154,14</t>
+          <t>-3,17; 334,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,72; 68,72</t>
+          <t>-32,38; 111,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>105,87%</t>
+          <t>74,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>-55,97%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,85</t>
+          <t>-2,06; 1,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,18</t>
+          <t>-0,72; 2,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,19</t>
+          <t>-3,44; 0,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 202,01</t>
+          <t>-55,89; 115,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 334,22</t>
+          <t>-39,49; 359,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 111,52</t>
+          <t>-83,47; 17,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,55%</t>
+          <t>54,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-55,97%</t>
+          <t>19,12%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,74</t>
+          <t>-1,55; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,77</t>
+          <t>-0,45; 2,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,02</t>
+          <t>-1,16; 2,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 115,87</t>
+          <t>-45,38; 97,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 359,84</t>
+          <t>-16,45; 200,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,47; 17,2</t>
+          <t>-33,81; 123,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>63,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>-6,67%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,78</t>
+          <t>-0,35; 1,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,84</t>
+          <t>0,27; 1,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,44</t>
+          <t>-1,05; 0,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 97,27</t>
+          <t>-11,64; 66,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 200,21</t>
+          <t>12,43; 136,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 123,88</t>
+          <t>-32,54; 30,67</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>19,8%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>63,19%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-6,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 1,44</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 1,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 0,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-11,64; 66,92</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>12,43; 136,76</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-32,54; 30,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Habitat-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,56</t>
+          <t>-0,87; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,63</t>
+          <t>-1,55; 1,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,0</t>
+          <t>-3,05; 0,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 186,02</t>
+          <t>-23,3; 179,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 191,06</t>
+          <t>-63,63; 184,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,88; 53,27</t>
+          <t>-71,07; 54,21</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,85</t>
+          <t>-0,82; 2,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,18</t>
+          <t>0,16; 3,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,19</t>
+          <t>-1,16; 2,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,69; 202,01</t>
+          <t>-28,68; 172,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 334,22</t>
+          <t>3,93; 362,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 111,52</t>
+          <t>-32,72; 125,6</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,74</t>
+          <t>-1,95; 1,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,77</t>
+          <t>-0,52; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,02</t>
+          <t>-3,43; 0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-55,89; 115,87</t>
+          <t>-56,54; 125,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 359,84</t>
+          <t>-31,35; 369,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,47; 17,2</t>
+          <t>-84,9; 11,57</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,78</t>
+          <t>-1,48; 1,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,84</t>
+          <t>-0,55; 2,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,44</t>
+          <t>-1,25; 2,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,38; 97,27</t>
+          <t>-45,32; 115,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 200,21</t>
+          <t>-19,49; 194,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 123,88</t>
+          <t>-34,74; 115,67</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,44</t>
+          <t>-0,39; 1,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,92</t>
+          <t>0,29; 1,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,71</t>
+          <t>-1,09; 0,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 66,92</t>
+          <t>-12,32; 68,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 136,76</t>
+          <t>11,85; 142,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 30,67</t>
+          <t>-32,83; 27,7</t>
         </is>
       </c>
     </row>
